--- a/data/yoursluthaley_2026-02-11.xlsx
+++ b/data/yoursluthaley_2026-02-11.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,6 +501,56 @@
           <t>heeft_link</t>
         </is>
       </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>woordenaantal</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>hashtag_density</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>is_vraag</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>aantal_uitroep</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>caps_ratio</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>emoji_count</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>content_type_educatief</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>content_type_vraag/poll</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>ai_prediction</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>prediction_error</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -554,6 +604,36 @@
       <c r="O2" t="n">
         <v>1</v>
       </c>
+      <c r="P2" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.04938271604938271</v>
+      </c>
+      <c r="U2" t="n">
+        <v>11</v>
+      </c>
+      <c r="V2" t="b">
+        <v>0</v>
+      </c>
+      <c r="W2" t="b">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>21.99365024137332</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>12.00634975862668</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -607,6 +687,36 @@
       <c r="O3" t="n">
         <v>1</v>
       </c>
+      <c r="P3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="U3" t="n">
+        <v>13</v>
+      </c>
+      <c r="V3" t="b">
+        <v>0</v>
+      </c>
+      <c r="W3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>15.59773742522942</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>36.40226257477057</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -656,6 +766,36 @@
       <c r="O4" t="n">
         <v>0</v>
       </c>
+      <c r="P4" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.02222222222222222</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="b">
+        <v>0</v>
+      </c>
+      <c r="W4" t="b">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>8.643420405021621</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>4.356579594978379</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -709,6 +849,36 @@
       <c r="O5" t="n">
         <v>1</v>
       </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.1833333333333333</v>
+      </c>
+      <c r="U5" t="n">
+        <v>13</v>
+      </c>
+      <c r="V5" t="b">
+        <v>0</v>
+      </c>
+      <c r="W5" t="b">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>20.34522573087608</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>29.65477426912392</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -762,6 +932,36 @@
       <c r="O6" t="n">
         <v>1</v>
       </c>
+      <c r="P6" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.1063829787234043</v>
+      </c>
+      <c r="U6" t="n">
+        <v>6</v>
+      </c>
+      <c r="V6" t="b">
+        <v>0</v>
+      </c>
+      <c r="W6" t="b">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>16.59239438934141</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>-0.5923943893414112</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -815,6 +1015,36 @@
       <c r="O7" t="n">
         <v>1</v>
       </c>
+      <c r="P7" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.2307692307692308</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="U7" t="n">
+        <v>10</v>
+      </c>
+      <c r="V7" t="b">
+        <v>0</v>
+      </c>
+      <c r="W7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>20.94512262366325</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>106.0548773763367</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -868,6 +1098,36 @@
       <c r="O8" t="n">
         <v>1</v>
       </c>
+      <c r="P8" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.08823529411764706</v>
+      </c>
+      <c r="U8" t="n">
+        <v>8</v>
+      </c>
+      <c r="V8" t="b">
+        <v>0</v>
+      </c>
+      <c r="W8" t="b">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>22.9597339379084</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1.040266062091597</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -921,6 +1181,36 @@
       <c r="O9" t="n">
         <v>1</v>
       </c>
+      <c r="P9" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="U9" t="n">
+        <v>8</v>
+      </c>
+      <c r="V9" t="b">
+        <v>0</v>
+      </c>
+      <c r="W9" t="b">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>25.71472090947587</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>8.285279090524135</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -974,6 +1264,36 @@
       <c r="O10" t="n">
         <v>1</v>
       </c>
+      <c r="P10" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.06741573033707865</v>
+      </c>
+      <c r="U10" t="n">
+        <v>10</v>
+      </c>
+      <c r="V10" t="b">
+        <v>1</v>
+      </c>
+      <c r="W10" t="b">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>13.87357873734585</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>58.12642126265415</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1027,6 +1347,36 @@
       <c r="O11" t="n">
         <v>1</v>
       </c>
+      <c r="P11" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="U11" t="n">
+        <v>6</v>
+      </c>
+      <c r="V11" t="b">
+        <v>0</v>
+      </c>
+      <c r="W11" t="b">
+        <v>1</v>
+      </c>
+      <c r="X11" t="n">
+        <v>21.49217670596033</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>13.50782329403967</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1080,6 +1430,36 @@
       <c r="O12" t="n">
         <v>1</v>
       </c>
+      <c r="P12" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.05970149253731343</v>
+      </c>
+      <c r="U12" t="n">
+        <v>6</v>
+      </c>
+      <c r="V12" t="b">
+        <v>0</v>
+      </c>
+      <c r="W12" t="b">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1.626533174752228</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>-0.626533174752228</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1133,19 +1513,49 @@
       <c r="O13" t="n">
         <v>1</v>
       </c>
+      <c r="P13" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.07462686567164178</v>
+      </c>
+      <c r="U13" t="n">
+        <v>6</v>
+      </c>
+      <c r="V13" t="b">
+        <v>0</v>
+      </c>
+      <c r="W13" t="b">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>2.706512650324906</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>-1.706512650324906</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2017632445873447025</t>
+          <t>2017632384439484573</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>46053.67633101852</v>
+        <v>46053.6761574074</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>sending titty pics to everyone who likes :D https://t.co/3bOENDh4x1</t>
+          <t>sending titty pics to everyone who likes :D https://t.co/VE38fqzKxN</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -1157,7 +1567,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1169,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
         <v>16</v>
@@ -1185,20 +1595,50 @@
       </c>
       <c r="O14" t="n">
         <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.07462686567164178</v>
+      </c>
+      <c r="U14" t="n">
+        <v>6</v>
+      </c>
+      <c r="V14" t="b">
+        <v>0</v>
+      </c>
+      <c r="W14" t="b">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>2.706512650324906</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>2.293487349675094</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2017632384439484573</t>
+          <t>2017632343368859660</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>46053.6761574074</v>
+        <v>46053.67605324074</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>sending titty pics to everyone who likes :D https://t.co/VE38fqzKxN</t>
+          <t>sending titty pics to everyone who likes :D https://t.co/GWFPaaNeJw</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -1210,19 +1650,19 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
         <v>16</v>
@@ -1238,20 +1678,50 @@
       </c>
       <c r="O15" t="n">
         <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.1044776119402985</v>
+      </c>
+      <c r="U15" t="n">
+        <v>6</v>
+      </c>
+      <c r="V15" t="b">
+        <v>0</v>
+      </c>
+      <c r="W15" t="b">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>8.591814491327973</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>-4.591814491327973</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2017632343368859660</t>
+          <t>2017632292450034122</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>46053.67605324074</v>
+        <v>46053.67590277778</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>sending titty pics to everyone who likes :D https://t.co/GWFPaaNeJw</t>
+          <t>sending titty pics to everyone who likes :D https://t.co/J6iNJIOLzz</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -1263,19 +1733,19 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="K16" t="n">
         <v>16</v>
@@ -1291,73 +1761,129 @@
       </c>
       <c r="O16" t="n">
         <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.1044776119402985</v>
+      </c>
+      <c r="U16" t="n">
+        <v>6</v>
+      </c>
+      <c r="V16" t="b">
+        <v>0</v>
+      </c>
+      <c r="W16" t="b">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>8.591814491327973</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>3.408185508672027</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2017632292450034122</t>
+          <t>2017216850573000763</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>46053.67590277778</v>
+        <v>46052.52950231481</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>sending titty pics to everyone who likes :D https://t.co/J6iNJIOLzz</t>
+          <t>Is this considered hot? https://t.co/m23fu5hxnX</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>video</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
+        <v>10</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>10</v>
+      </c>
+      <c r="K17" t="n">
         <v>12</v>
       </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>12</v>
-      </c>
-      <c r="K17" t="n">
-        <v>16</v>
-      </c>
       <c r="L17" t="n">
+        <v>4</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>47</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
         <v>5</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>67</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.0425531914893617</v>
+      </c>
+      <c r="U17" t="n">
+        <v>6</v>
+      </c>
+      <c r="V17" t="b">
+        <v>0</v>
+      </c>
+      <c r="W17" t="b">
+        <v>1</v>
+      </c>
+      <c r="X17" t="n">
+        <v>11.19228740812665</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>-1.192287408126646</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2017216850573000763</t>
+          <t>2017176351640264919</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>46052.52950231481</v>
+        <v>46052.41775462963</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Is this considered hot? https://t.co/m23fu5hxnX</t>
+          <t>Whos tryna buy my premium snap? #nsfwtwt</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -1365,137 +1891,148 @@
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
+        <v>6</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>8</v>
+      </c>
+      <c r="K18" t="n">
         <v>10</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>10</v>
-      </c>
-      <c r="K18" t="n">
-        <v>12</v>
       </c>
       <c r="L18" t="n">
         <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" t="n">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2</v>
+      </c>
+      <c r="V18" t="b">
+        <v>0</v>
+      </c>
+      <c r="W18" t="b">
+        <v>1</v>
+      </c>
+      <c r="X18" t="n">
+        <v>10.29289469307984</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>-2.292894693079838</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2017176351640264919</t>
+          <t>2017103228018782679</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>46052.41775462963</v>
+        <v>46052.21597222222</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Whos tryna buy my premium snap? #nsfwtwt</t>
+          <t>imagine bouncing on ur dick like this
+#nsfwtwt #bigass https://t.co/bNbiaFvriE</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>photo</t>
+        </is>
+      </c>
       <c r="F19" t="n">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="K19" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L19" t="n">
         <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2017103228018782679</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>46052.21597222222</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>imagine bouncing on ur dick like this
-#nsfwtwt #bigass https://t.co/bNbiaFvriE</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>photo</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>53</v>
-      </c>
-      <c r="G20" t="n">
-        <v>3</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>58</v>
-      </c>
-      <c r="K20" t="n">
-        <v>5</v>
-      </c>
-      <c r="L20" t="n">
-        <v>4</v>
-      </c>
-      <c r="M20" t="n">
-        <v>2</v>
-      </c>
-      <c r="N20" t="n">
-        <v>78</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="P19" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.03846153846153846</v>
+      </c>
+      <c r="U19" t="n">
+        <v>7</v>
+      </c>
+      <c r="V19" t="b">
+        <v>0</v>
+      </c>
+      <c r="W19" t="b">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>25.62679017310927</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>32.37320982689073</v>
       </c>
     </row>
   </sheetData>
